--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shay.miara\Documents\UiPath\Execute\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot1\Documents\UiPath\Execute\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9926ABD3-DB9D-49FD-A6CD-342F70531CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA31147-2BA0-4145-ACF6-C83F9E0BFCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -1658,7 +1658,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
@@ -2819,7 +2819,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -582,7 +582,7 @@
       <x:selection activeCell="B7" sqref="B7"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="28.702188" defaultRowHeight="15" customHeight="1"/>
+  <x:sheetFormatPr defaultColWidth="33.676563" defaultRowHeight="15" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="43.570312" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="43" style="0" customWidth="1"/>
@@ -1679,7 +1679,7 @@
       <x:selection activeCell="A12" sqref="A12"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="28.702188" defaultRowHeight="15" customHeight="1"/>
+  <x:sheetFormatPr defaultColWidth="33.676563" defaultRowHeight="15" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="41" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="51" style="0" customWidth="1"/>
@@ -2847,7 +2847,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="28.702188" defaultRowHeight="15" customHeight="1"/>
+  <x:sheetFormatPr defaultColWidth="33.676563" defaultRowHeight="15" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="31.855469" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="30.140625" style="0" customWidth="1"/>
